--- a/Phase 3 - Konzept/ID2558_Tabinas_Kenan_Konzept.xlsx
+++ b/Phase 3 - Konzept/ID2558_Tabinas_Kenan_Konzept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 3 - Konzept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC096ED6-A166-0B42-95D3-3EE0347CBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814BF97B-CB47-C447-976C-A1B6CFED8F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="4" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -4564,7 +4564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402B5874-C5A5-7F41-B5B6-0AE8D83BCBD7}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
@@ -6906,7 +6906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19FCD26-6F0C-C142-B704-31783C40FA23}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="A1:D18"/>
     </sheetView>
   </sheetViews>

--- a/Phase 3 - Konzept/ID2558_Tabinas_Kenan_Konzept.xlsx
+++ b/Phase 3 - Konzept/ID2558_Tabinas_Kenan_Konzept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 3 - Konzept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814BF97B-CB47-C447-976C-A1B6CFED8F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E6F93-3CDF-104F-A7E8-F5A9218BA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="3" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -4564,7 +4564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402B5874-C5A5-7F41-B5B6-0AE8D83BCBD7}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
@@ -4941,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B49FE1-A753-EC48-B4F0-2775F3BDB3E1}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Phase 3 - Konzept/ID2558_Tabinas_Kenan_Konzept.xlsx
+++ b/Phase 3 - Konzept/ID2558_Tabinas_Kenan_Konzept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 3 - Konzept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E6F93-3CDF-104F-A7E8-F5A9218BA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D379412F-21D0-2845-9C2C-C2FDE237795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="3" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="1" xr2:uid="{6811828A-B73C-304C-B75C-A648C40E3DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="638">
   <si>
     <t>ID</t>
   </si>
@@ -309,9 +309,6 @@
     <t>chat_id</t>
   </si>
   <si>
-    <t>Datatype</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -685,9 +682,6 @@
   </si>
   <si>
     <t>chat_User</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Endpoint</t>
@@ -1969,7 +1963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2046,6 +2040,17 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2161,7 +2166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2214,6 +2219,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,11 +2557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A88CDA-49C1-C043-8FF6-272158A22F61}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -2563,7 +2570,7 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,7 +2596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +2608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2617,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2631,10 +2638,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2645,13 +2652,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2662,13 +2669,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2677,10 +2684,10 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2689,10 +2696,10 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -2703,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -2718,10 +2725,10 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2730,10 +2737,10 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2742,10 +2749,10 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2754,10 +2761,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2766,10 +2773,10 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -2778,10 +2785,10 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -2790,10 +2797,10 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
@@ -2802,10 +2809,10 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2828,10 +2835,10 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2840,10 +2847,10 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2852,10 +2859,10 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2864,7 +2871,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="17" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -2873,13 +2880,13 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
@@ -2888,10 +2895,10 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -2900,10 +2907,10 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -2912,10 +2919,10 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -2924,10 +2931,10 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="17" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -2951,7 +2958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="17" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
@@ -2960,10 +2967,10 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -2972,10 +2979,10 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
@@ -2984,10 +2991,10 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -2996,7 +3003,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3006,26 +3013,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA73C91-FB47-2F49-85E3-228BCFCC3504}">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:T272"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -3073,27 +3077,43 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="17">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:20" ht="17">
       <c r="A9" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:20" ht="17">
       <c r="A10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="S10" s="25"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" ht="17">
       <c r="A11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+    </row>
+    <row r="12" spans="1:20" ht="17">
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" spans="1:20" ht="17">
       <c r="A13" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3101,7 +3121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -3109,55 +3129,55 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C18" t="s">
         <v>116</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
       <c r="B22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -3165,1061 +3185,1061 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
       <c r="B28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>124</v>
       </c>
       <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>125</v>
       </c>
-      <c r="B31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>141</v>
-      </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>121</v>
       </c>
       <c r="B80" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>131</v>
-      </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>79</v>
       </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>80</v>
       </c>
-      <c r="B89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>80</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="10"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B102" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B106" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="C112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B107" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>131</v>
-      </c>
-      <c r="B108" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>79</v>
       </c>
-      <c r="B111" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>157</v>
-      </c>
-      <c r="B118" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>134</v>
-      </c>
-      <c r="B122" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>149</v>
       </c>
       <c r="B123" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B124" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>79</v>
       </c>
-      <c r="B127" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>112</v>
-      </c>
-      <c r="B128" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>79</v>
-      </c>
       <c r="B131" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>163</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>164</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B141" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>170</v>
-      </c>
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>80</v>
+      </c>
+      <c r="B142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>111</v>
+      </c>
+      <c r="B143" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>120</v>
+      </c>
+      <c r="B144" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>134</v>
-      </c>
-      <c r="B141" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>165</v>
-      </c>
-      <c r="B142" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="B151" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>80</v>
       </c>
-      <c r="B143" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>112</v>
-      </c>
-      <c r="B144" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>121</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>160</v>
-      </c>
-      <c r="B146" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>168</v>
-      </c>
-      <c r="B152" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B154" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B155" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>79</v>
+      </c>
+      <c r="B159" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>120</v>
+      </c>
+      <c r="B160" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>169</v>
-      </c>
-      <c r="B156" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>79</v>
-      </c>
-      <c r="B160" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B161" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B163" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>111</v>
+      </c>
+      <c r="B167" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>80</v>
+      </c>
+      <c r="B168" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>79</v>
+      </c>
+      <c r="B172" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>173</v>
-      </c>
-      <c r="B164" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>112</v>
-      </c>
-      <c r="B168" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>80</v>
-      </c>
-      <c r="B169" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>79</v>
-      </c>
-      <c r="B173" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>177</v>
-      </c>
-      <c r="B174" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>160</v>
-      </c>
-      <c r="B176" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>79</v>
+      </c>
+      <c r="B180" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>130</v>
+      </c>
+      <c r="B181" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>79</v>
-      </c>
-      <c r="B181" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>131</v>
-      </c>
-      <c r="B182" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>185</v>
-      </c>
-      <c r="B184" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>79</v>
-      </c>
       <c r="B187" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
+        <v>80</v>
+      </c>
+      <c r="B188" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>182</v>
       </c>
-      <c r="B188" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>80</v>
-      </c>
       <c r="B189" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>183</v>
       </c>
       <c r="B190" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B191" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>121</v>
-      </c>
-      <c r="B192" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="11" t="s">
+    <row r="196" spans="1:2">
+      <c r="A196" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>79</v>
+      </c>
+      <c r="B197" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>79</v>
+      </c>
+      <c r="B202" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>80</v>
+      </c>
+      <c r="B204" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>120</v>
+      </c>
+      <c r="B205" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>79</v>
       </c>
-      <c r="B198" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>149</v>
-      </c>
-      <c r="B199" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>79</v>
       </c>
-      <c r="B203" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>170</v>
-      </c>
-      <c r="B204" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="B214" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>80</v>
       </c>
-      <c r="B205" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>121</v>
-      </c>
-      <c r="B206" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
+      <c r="B215" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>79</v>
-      </c>
-      <c r="B215" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>80</v>
-      </c>
       <c r="B216" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>189</v>
       </c>
       <c r="B217" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>190</v>
       </c>
       <c r="B218" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>191</v>
       </c>
@@ -4227,97 +4247,97 @@
         <v>84</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>192</v>
-      </c>
-      <c r="B220" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
+      <c r="A221" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>79</v>
+      </c>
+      <c r="B222" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="B223" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="B224" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B225" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="B226" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>79</v>
+      </c>
+      <c r="B230" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>195</v>
-      </c>
-      <c r="B227" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
+      <c r="C231" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>79</v>
-      </c>
-      <c r="B231" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B232" t="s">
-        <v>85</v>
-      </c>
-      <c r="C232" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>112</v>
-      </c>
-      <c r="B233" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="12" t="s">
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>200</v>
       </c>
@@ -4325,238 +4345,231 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="238" spans="1:3">
+      <c r="A238" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B237" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>79</v>
+      </c>
+      <c r="B239" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>200</v>
+      </c>
+      <c r="B240" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="B241" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>188</v>
+      </c>
+      <c r="B242" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>79</v>
       </c>
-      <c r="B240" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>201</v>
-      </c>
-      <c r="B241" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>203</v>
-      </c>
-      <c r="B242" t="s">
+      <c r="B245" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>111</v>
+      </c>
+      <c r="B246" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>148</v>
+      </c>
+      <c r="B247" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>189</v>
-      </c>
-      <c r="B243" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>79</v>
-      </c>
-      <c r="B246" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>112</v>
-      </c>
-      <c r="B247" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="B248" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="B249" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>157</v>
-      </c>
-      <c r="B250" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>79</v>
+      </c>
+      <c r="B252" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="B253" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>189</v>
       </c>
       <c r="B254" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="B255" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>80</v>
-      </c>
-      <c r="B256" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>79</v>
+      </c>
+      <c r="B258" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>111</v>
+      </c>
+      <c r="B259" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>79</v>
       </c>
-      <c r="B259" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>112</v>
-      </c>
-      <c r="B260" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B263" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="B264" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
+        <v>172</v>
+      </c>
+      <c r="B265" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>207</v>
+      </c>
+      <c r="B266" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>80</v>
+      </c>
+      <c r="B267" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>79</v>
+      </c>
+      <c r="B270" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>207</v>
+      </c>
+      <c r="B271" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
         <v>81</v>
       </c>
-      <c r="B265" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>173</v>
-      </c>
-      <c r="B266" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>208</v>
-      </c>
-      <c r="B267" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>80</v>
-      </c>
-      <c r="B268" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>79</v>
-      </c>
-      <c r="B271" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>208</v>
-      </c>
       <c r="B272" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>81</v>
-      </c>
-      <c r="B273" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4568,368 +4581,368 @@
       <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="5" width="30.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34">
+      <c r="A5" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="D5" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51">
+      <c r="A6" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B7" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="34">
+      <c r="A9" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>253</v>
-      </c>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17">
+      <c r="A10" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
+      <c r="A11" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17">
+      <c r="A12" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="C12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
+      <c r="A13" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="B13" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17">
+      <c r="A14" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
+      <c r="A15" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="D15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
+      <c r="A16" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B16" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17">
+      <c r="A17" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="C17" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="B18" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34">
+      <c r="A19" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>275</v>
-      </c>
       <c r="C19" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17">
       <c r="A21" s="18"/>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17">
       <c r="A22" s="18"/>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17">
       <c r="A23" s="18"/>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17">
       <c r="A24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17">
       <c r="A26" s="18"/>
     </row>
   </sheetData>
@@ -4941,11 +4954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B49FE1-A753-EC48-B4F0-2775F3BDB3E1}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" customWidth="1"/>
@@ -4953,1947 +4966,1947 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="F1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>282</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>284</v>
       </c>
       <c r="H2" t="str">
         <f>A2 &amp; "-" &amp; MID(G2, 2, LEN(G2)-1)</f>
         <v>TC001-users</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>282</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>284</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H65" si="0">A3 &amp; "-" &amp; MID(G3, 2, LEN(G3)-1)</f>
         <v>TC002-users</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>283</v>
-      </c>
       <c r="G4" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>TC003-users</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>297</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>TC004-users</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>302</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>TC005-users</v>
       </c>
       <c r="K6" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>302</v>
-      </c>
       <c r="G7" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>TC006-users</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="G8" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>TC007-users</v>
       </c>
       <c r="K8" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>TC008-users</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="F10" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>318</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>TC009-organisations</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>322</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>TC010-organisations</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>TC011-organisations</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>329</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>TC012-organisations</v>
       </c>
       <c r="K13" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>328</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>TC013-organisations</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="F15" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>318</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>TC014-organisations</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>322</v>
-      </c>
       <c r="E16" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>TC015-organisations</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>TC016-organisations</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>329</v>
-      </c>
       <c r="E18" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>TC017-organisations</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>TC018-organisations</v>
       </c>
       <c r="K19" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="E20" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>342</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>TC019-projects</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>346</v>
-      </c>
       <c r="E21" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>TC020-projects</v>
       </c>
       <c r="K21" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>345</v>
-      </c>
       <c r="D22" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>TC021-projects</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>TC022-projects</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="E24" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>355</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>357</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>TC023-chats</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>TC024-chats</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="E26" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>365</v>
-      </c>
       <c r="F26" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>TC025-chats</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="E27" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>368</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>370</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>TC026-messages</v>
       </c>
       <c r="K27" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>368</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>370</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>TC027-messages</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>377</v>
-      </c>
       <c r="E29" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>TC028-messages</v>
       </c>
       <c r="K29" s="20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>376</v>
-      </c>
       <c r="D30" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>TC029-messages</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="E31" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>383</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>385</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>TC030-calendars</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>389</v>
-      </c>
       <c r="E32" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>TC031-calendars</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>393</v>
-      </c>
       <c r="E33" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>TC032-calendars</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B34" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="E34" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>396</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>398</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>TC033-user-organisations</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="E35" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>403</v>
-      </c>
       <c r="F35" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>TC034-user-organisations</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>407</v>
-      </c>
       <c r="E36" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>TC035-user-organisations</v>
       </c>
       <c r="K36" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>406</v>
-      </c>
       <c r="D37" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>TC036-user-organisations</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B38" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="E38" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" s="21" t="s">
         <v>413</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>415</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>TC037-tasks</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>419</v>
-      </c>
       <c r="E39" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>TC038-tasks</v>
       </c>
       <c r="K39" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>418</v>
-      </c>
       <c r="D40" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>TC039-tasks</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>TC040-tasks</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>427</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>429</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>TC041-songs</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>TC042-songs</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>TC043-songs</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>TC044-songs</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>440</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>442</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>TC045-recordings</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>TC046-recordings</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>TC047-recordings</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>452</v>
-      </c>
       <c r="E49" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>TC048-recordings</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>454</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>456</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>TC049-setlists</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>TC050-setlists</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>TC051-setlists</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>TC052-setlists</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v>TC053-timetables</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v>TC054-timetables</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v>TC055-timetables</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
         <v>TC056-timetables</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B58" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="E58" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G58" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>483</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
         <v>TC057-chat-users</v>
       </c>
       <c r="K58" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="C59" s="21" t="s">
+      <c r="D59" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G59" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>483</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
         <v>TC058-chat-users</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C60" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>483</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v>TC059-chat-users</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C61" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>483</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
         <v>TC060-chat-users</v>
       </c>
       <c r="K61" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B62" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="E62" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="21" t="s">
         <v>495</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>497</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
         <v>TC061-user-projects</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
         <v>TC062-user-projects</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v>TC063-user-projects</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
         <v>TC064-user-projects</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6910,7 +6923,7 @@
       <selection activeCell="D18" sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
@@ -6918,256 +6931,256 @@
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="C1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="34">
+      <c r="A2" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B2" s="22" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="C2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="51">
+      <c r="A3" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="B3" s="22" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="C3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="68">
+      <c r="A4" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="B4" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68">
+      <c r="A5" s="22" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="B5" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="B6" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="C6" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="C6" s="22" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="D7" s="22" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51">
+      <c r="A8" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="B8" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="C8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="34">
+      <c r="A9" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="B9" s="22" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="C9" s="22" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="B10" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="22" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="B11" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C11" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
+      <c r="A12" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C12" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="34">
+      <c r="A14" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="C14" s="22" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="34">
+      <c r="A15" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="B15" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="C15" s="22" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="34">
+      <c r="A16" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="B16" s="22" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="C16" s="22" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="17">
+      <c r="A17" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="B17" s="22" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="D17" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="C17" s="22" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="17">
+      <c r="A18" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="B18" s="22" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="C18" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>630</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -7183,7 +7196,7 @@
       <selection activeCell="D19" sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -7191,23 +7204,23 @@
     <col min="4" max="4" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="C1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" s="23" t="s">
         <v>576</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>578</v>
       </c>
       <c r="B2" s="23">
         <v>0</v>
@@ -7219,9 +7232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B3" s="23">
         <v>0</v>
@@ -7233,9 +7246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B4" s="23">
         <v>1</v>
@@ -7247,9 +7260,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B5" s="23">
         <v>2</v>
@@ -7261,9 +7274,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B6" s="23">
         <v>3</v>
@@ -7275,9 +7288,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B7" s="23">
         <v>2</v>
@@ -7289,9 +7302,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B8" s="23">
         <v>3</v>
@@ -7303,9 +7316,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B9" s="23">
         <v>0</v>
@@ -7317,9 +7330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B10" s="23">
         <v>2</v>
@@ -7331,9 +7344,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B11" s="23">
         <v>0</v>
@@ -7345,9 +7358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B12" s="23">
         <v>2</v>
@@ -7359,9 +7372,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17">
       <c r="A13" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -7373,9 +7386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="34">
       <c r="A14" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B14" s="23">
         <v>0</v>
@@ -7387,9 +7400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17">
       <c r="A15" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B15" s="23">
         <v>0</v>
@@ -7401,9 +7414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B16" s="23">
         <v>1</v>
@@ -7415,9 +7428,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17">
       <c r="A17" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B17" s="23">
         <v>0</v>
@@ -7429,9 +7442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B18" s="23">
         <v>2</v>
@@ -7443,9 +7456,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B19">
         <f>SUM(B2:B18)</f>
@@ -7473,51 +7486,51 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17">
       <c r="A1" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="18" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="17">
       <c r="A3" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17">
       <c r="A4" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="17">
       <c r="A5" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17">
       <c r="A6" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7536,38 +7549,38 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
